--- a/data/les-chaises-products.xlsx
+++ b/data/les-chaises-products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
   <si>
     <t>Handle</t>
   </si>
@@ -94,33 +94,36 @@
     <t>les-chaises</t>
   </si>
   <si>
+    <t>chair, classic</t>
+  </si>
+  <si>
+    <t>Default Title</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0733/3353/9044/files/ryul-davidson-m-gL02InhAE-unsplash.jpg?v=1745950696</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>elara-chair</t>
+  </si>
+  <si>
+    <t>Elara Chair</t>
+  </si>
+  <si>
+    <t>Praesent vulputate, augue ut condimentum facilisis, ipsum justo egestas diam, quis maximus nisl nulla non sem.</t>
+  </si>
+  <si>
     <t>chair</t>
   </si>
   <si>
-    <t>Default Title</t>
-  </si>
-  <si>
-    <t>deny</t>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0733/3353/9044/files/ryul-davidson-m-gL02InhAE-unsplash.jpg?v=1745950696</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>elara-chair</t>
-  </si>
-  <si>
-    <t>Elara Chair</t>
-  </si>
-  <si>
-    <t>Praesent vulputate, augue ut condimentum facilisis, ipsum justo egestas diam, quis maximus nisl nulla non sem.</t>
-  </si>
-  <si>
     <t>https://cdn.shopify.com/s/files/1/0733/3353/9044/files/eugenia-pankiv-1JJJIHh7-Mk-unsplash.jpg?v=1745950697</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>Donec ac maximus est. Praesent est diam, laoreet at rutrum in, hendrerit sit amet nulla.</t>
   </si>
   <si>
+    <t>chair, deal, classic</t>
+  </si>
+  <si>
     <t>https://cdn.shopify.com/s/files/1/0733/3353/9044/files/ronnarit-jirathanyakorn-HtF2wx-_R8s-unsplash.jpg?v=1745950696</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t>Nullam non diam tortor. Praesent auctor purus a pulvinar venenatis. Nulla facilisi.</t>
+  </si>
+  <si>
+    <t>chair, deal</t>
   </si>
   <si>
     <t>https://cdn.shopify.com/s/files/1/0733/3353/9044/files/sq-lim-dX5iMJQKzOU-unsplash.jpg?v=1745950696</t>
@@ -821,7 +830,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G3" s="8" t="b">
         <v>1</v>
@@ -856,7 +865,7 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T3" s="4">
         <v>1.0</v>
@@ -871,20 +880,20 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8" t="b">
         <v>1</v>
@@ -921,7 +930,7 @@
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T4" s="4">
         <v>1.0</v>
@@ -936,20 +945,20 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" s="8" t="b">
         <v>1</v>
@@ -984,7 +993,7 @@
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T5" s="4">
         <v>1.0</v>
@@ -999,13 +1008,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
@@ -1047,7 +1056,7 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T6" s="4">
         <v>1.0</v>
@@ -1062,20 +1071,20 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G7" s="8" t="b">
         <v>1</v>
@@ -1112,7 +1121,7 @@
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T7" s="4">
         <v>1.0</v>
@@ -1127,13 +1136,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
@@ -1175,7 +1184,7 @@
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T8" s="4">
         <v>1.0</v>
@@ -1190,20 +1199,20 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G9" s="8" t="b">
         <v>1</v>
@@ -1240,7 +1249,7 @@
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T9" s="4">
         <v>1.0</v>
@@ -1255,13 +1264,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>26</v>
@@ -1303,7 +1312,7 @@
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T10" s="4">
         <v>1.0</v>
@@ -1318,20 +1327,20 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G11" s="8" t="b">
         <v>1</v>
@@ -1368,7 +1377,7 @@
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T11" s="4">
         <v>1.0</v>
@@ -1383,20 +1392,20 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="b">
         <v>1</v>
@@ -1431,7 +1440,7 @@
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T12" s="4">
         <v>1.0</v>
@@ -1446,20 +1455,20 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G13" s="8" t="b">
         <v>1</v>
@@ -1496,7 +1505,7 @@
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T13" s="4">
         <v>1.0</v>
@@ -1511,20 +1520,20 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G14" s="8" t="b">
         <v>1</v>
@@ -1559,7 +1568,7 @@
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T14" s="4">
         <v>1.0</v>
@@ -1574,13 +1583,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>26</v>
@@ -1622,7 +1631,7 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T15" s="4">
         <v>1.0</v>
@@ -1637,20 +1646,20 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G16" s="8" t="b">
         <v>1</v>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T16" s="4">
         <v>1.0</v>
@@ -1702,20 +1711,20 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G17" s="8" t="b">
         <v>1</v>
@@ -1752,7 +1761,7 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T17" s="4">
         <v>1.0</v>
@@ -1767,13 +1776,13 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
@@ -1815,7 +1824,7 @@
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T18" s="4">
         <v>1.0</v>
@@ -1830,13 +1839,13 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
@@ -1878,7 +1887,7 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T19" s="4">
         <v>1.0</v>
@@ -1893,13 +1902,13 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>26</v>
@@ -1941,7 +1950,7 @@
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T20" s="4">
         <v>1.0</v>
